--- a/team_specific_matrix/Furman_B.xlsx
+++ b/team_specific_matrix/Furman_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2390243902439024</v>
+        <v>0.2313725490196079</v>
       </c>
       <c r="C2">
-        <v>0.4878048780487805</v>
+        <v>0.4980392156862745</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.004878048780487805</v>
+        <v>0.00392156862745098</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1560975609756098</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1121951219512195</v>
+        <v>0.1294117647058824</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0196078431372549</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02941176470588235</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7058823529411765</v>
+        <v>0.7099236641221374</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2450980392156863</v>
+        <v>0.2442748091603053</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06451612903225806</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6774193548387096</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2580645161290323</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06134969325153374</v>
+        <v>0.06532663316582915</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01226993865030675</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03680981595092025</v>
+        <v>0.04020100502512563</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2760736196319019</v>
+        <v>0.2814070351758794</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.196319018404908</v>
+        <v>0.1809045226130653</v>
       </c>
       <c r="R6">
-        <v>0.06748466257668712</v>
+        <v>0.08040201005025126</v>
       </c>
       <c r="S6">
-        <v>0.3496932515337423</v>
+        <v>0.3316582914572864</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05921052631578947</v>
+        <v>0.07329842931937172</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01973684210526316</v>
+        <v>0.01570680628272251</v>
       </c>
       <c r="E7">
-        <v>0.006578947368421052</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="F7">
-        <v>0.03289473684210526</v>
+        <v>0.03141361256544502</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1381578947368421</v>
+        <v>0.1256544502617801</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1776315789473684</v>
+        <v>0.1727748691099476</v>
       </c>
       <c r="R7">
-        <v>0.09868421052631579</v>
+        <v>0.1047120418848168</v>
       </c>
       <c r="S7">
-        <v>0.4671052631578947</v>
+        <v>0.4659685863874345</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08231707317073171</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01219512195121951</v>
+        <v>0.0125</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06707317073170732</v>
+        <v>0.065</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1158536585365854</v>
+        <v>0.1075</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.009146341463414634</v>
+        <v>0.01</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2103658536585366</v>
+        <v>0.1975</v>
       </c>
       <c r="R8">
-        <v>0.07926829268292683</v>
+        <v>0.0775</v>
       </c>
       <c r="S8">
-        <v>0.423780487804878</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08900523560209424</v>
+        <v>0.0963302752293578</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01570680628272251</v>
+        <v>0.01376146788990826</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03141361256544502</v>
+        <v>0.04128440366972477</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08376963350785341</v>
+        <v>0.08256880733944955</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02094240837696335</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1780104712041885</v>
+        <v>0.1880733944954129</v>
       </c>
       <c r="R9">
-        <v>0.07329842931937172</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="S9">
-        <v>0.5078534031413613</v>
+        <v>0.4954128440366973</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09054325955734406</v>
+        <v>0.09375</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02012072434607646</v>
+        <v>0.02027027027027027</v>
       </c>
       <c r="E10">
-        <v>0.001006036217303823</v>
+        <v>0.0008445945945945946</v>
       </c>
       <c r="F10">
-        <v>0.0744466800804829</v>
+        <v>0.07601351351351351</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1156941649899396</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01006036217303823</v>
+        <v>0.009290540540540541</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2545271629778672</v>
+        <v>0.254222972972973</v>
       </c>
       <c r="R10">
-        <v>0.07243460764587525</v>
+        <v>0.07010135135135136</v>
       </c>
       <c r="S10">
-        <v>0.3611670020120724</v>
+        <v>0.3673986486486486</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1428571428571428</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05357142857142857</v>
+        <v>0.05944055944055944</v>
       </c>
       <c r="K11">
-        <v>0.2142857142857143</v>
+        <v>0.2062937062937063</v>
       </c>
       <c r="L11">
-        <v>0.5669642857142857</v>
+        <v>0.5734265734265734</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02232142857142857</v>
+        <v>0.02447552447552448</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7050359712230215</v>
+        <v>0.7175141242937854</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1870503597122302</v>
+        <v>0.1807909604519774</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.07194244604316546</v>
+        <v>0.06214689265536723</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03597122302158273</v>
+        <v>0.03954802259887006</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.575</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.025</v>
+        <v>0.06382978723404255</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03546099290780142</v>
+        <v>0.03529411764705882</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1276595744680851</v>
+        <v>0.1352941176470588</v>
       </c>
       <c r="I15">
-        <v>0.0851063829787234</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="J15">
-        <v>0.4184397163120567</v>
+        <v>0.4352941176470588</v>
       </c>
       <c r="K15">
-        <v>0.05673758865248227</v>
+        <v>0.05294117647058823</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.03546099290780142</v>
+        <v>0.03529411764705882</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03546099290780142</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2056737588652482</v>
+        <v>0.2058823529411765</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03278688524590164</v>
+        <v>0.02684563758389262</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2049180327868853</v>
+        <v>0.2080536912751678</v>
       </c>
       <c r="I16">
-        <v>0.09016393442622951</v>
+        <v>0.09395973154362416</v>
       </c>
       <c r="J16">
-        <v>0.3770491803278688</v>
+        <v>0.3758389261744967</v>
       </c>
       <c r="K16">
-        <v>0.09016393442622951</v>
+        <v>0.1073825503355705</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01639344262295082</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="N16">
-        <v>0.01639344262295082</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="O16">
-        <v>0.04098360655737705</v>
+        <v>0.04026845637583892</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1311475409836066</v>
+        <v>0.1208053691275168</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01932367149758454</v>
+        <v>0.016359918200409</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1690821256038647</v>
+        <v>0.1738241308793456</v>
       </c>
       <c r="I17">
-        <v>0.1014492753623188</v>
+        <v>0.1022494887525562</v>
       </c>
       <c r="J17">
-        <v>0.4396135265700483</v>
+        <v>0.425357873210634</v>
       </c>
       <c r="K17">
-        <v>0.0821256038647343</v>
+        <v>0.1002044989775051</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01449275362318841</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04347826086956522</v>
+        <v>0.04703476482617587</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1304347826086956</v>
+        <v>0.1226993865030675</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.007352941176470588</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1691176470588235</v>
+        <v>0.1901840490797546</v>
       </c>
       <c r="I18">
-        <v>0.1102941176470588</v>
+        <v>0.09202453987730061</v>
       </c>
       <c r="J18">
-        <v>0.3455882352941176</v>
+        <v>0.3680981595092024</v>
       </c>
       <c r="K18">
-        <v>0.1176470588235294</v>
+        <v>0.1165644171779141</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02941176470588235</v>
+        <v>0.03067484662576687</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07352941176470588</v>
+        <v>0.06134969325153374</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1470588235294118</v>
+        <v>0.1288343558282209</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01167315175097276</v>
+        <v>0.01372074253430186</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1848249027237354</v>
+        <v>0.1848264729620662</v>
       </c>
       <c r="I19">
-        <v>0.1157587548638132</v>
+        <v>0.1089588377723971</v>
       </c>
       <c r="J19">
-        <v>0.3667315175097276</v>
+        <v>0.3704600484261501</v>
       </c>
       <c r="K19">
-        <v>0.1070038910505837</v>
+        <v>0.1105730427764326</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02334630350194553</v>
+        <v>0.02340597255851493</v>
       </c>
       <c r="N19">
-        <v>0.0009727626459143969</v>
+        <v>0.001614205004035512</v>
       </c>
       <c r="O19">
-        <v>0.06420233463035019</v>
+        <v>0.06376109765940274</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1254863813229572</v>
+        <v>0.122679580306699</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Furman_B.xlsx
+++ b/team_specific_matrix/Furman_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2313725490196079</v>
+        <v>0.2321428571428572</v>
       </c>
       <c r="C2">
-        <v>0.4980392156862745</v>
+        <v>0.4928571428571429</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.00392156862745098</v>
+        <v>0.003571428571428571</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1372549019607843</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1294117647058824</v>
+        <v>0.1285714285714286</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02290076335877863</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02290076335877863</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7099236641221374</v>
+        <v>0.7013888888888888</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2442748091603053</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05555555555555555</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6944444444444444</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.25</v>
+        <v>0.2325581395348837</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06532663316582915</v>
+        <v>0.07373271889400922</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01005025125628141</v>
+        <v>0.009216589861751152</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04020100502512563</v>
+        <v>0.05069124423963134</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2814070351758794</v>
+        <v>0.2672811059907834</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01005025125628141</v>
+        <v>0.009216589861751152</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1809045226130653</v>
+        <v>0.1751152073732719</v>
       </c>
       <c r="R6">
-        <v>0.08040201005025126</v>
+        <v>0.07834101382488479</v>
       </c>
       <c r="S6">
-        <v>0.3316582914572864</v>
+        <v>0.336405529953917</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07329842931937172</v>
+        <v>0.07655502392344497</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01570680628272251</v>
+        <v>0.01435406698564593</v>
       </c>
       <c r="E7">
-        <v>0.005235602094240838</v>
+        <v>0.004784688995215311</v>
       </c>
       <c r="F7">
-        <v>0.03141361256544502</v>
+        <v>0.03827751196172249</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1256544502617801</v>
+        <v>0.1196172248803828</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.005235602094240838</v>
+        <v>0.004784688995215311</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1727748691099476</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="R7">
-        <v>0.1047120418848168</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="S7">
-        <v>0.4659685863874345</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08500000000000001</v>
+        <v>0.08089887640449438</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0125</v>
+        <v>0.02022471910112359</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.065</v>
+        <v>0.06292134831460675</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1075</v>
+        <v>0.1033707865168539</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01</v>
+        <v>0.008988764044943821</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1975</v>
+        <v>0.197752808988764</v>
       </c>
       <c r="R8">
-        <v>0.0775</v>
+        <v>0.09213483146067415</v>
       </c>
       <c r="S8">
-        <v>0.445</v>
+        <v>0.4337078651685393</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0963302752293578</v>
+        <v>0.09236947791164658</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01376146788990826</v>
+        <v>0.01606425702811245</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04128440366972477</v>
+        <v>0.04016064257028112</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08256880733944955</v>
+        <v>0.08835341365461848</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01834862385321101</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1880733944954129</v>
+        <v>0.1887550200803213</v>
       </c>
       <c r="R9">
-        <v>0.06422018348623854</v>
+        <v>0.06425702811244979</v>
       </c>
       <c r="S9">
-        <v>0.4954128440366973</v>
+        <v>0.4859437751004016</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09375</v>
+        <v>0.09355828220858896</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02027027027027027</v>
+        <v>0.01993865030674847</v>
       </c>
       <c r="E10">
-        <v>0.0008445945945945946</v>
+        <v>0.0007668711656441718</v>
       </c>
       <c r="F10">
-        <v>0.07601351351351351</v>
+        <v>0.07438650306748466</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1081081081081081</v>
+        <v>0.1096625766871166</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.009290540540540541</v>
+        <v>0.009202453987730062</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.254222972972973</v>
+        <v>0.2523006134969325</v>
       </c>
       <c r="R10">
-        <v>0.07010135135135136</v>
+        <v>0.0736196319018405</v>
       </c>
       <c r="S10">
-        <v>0.3673986486486486</v>
+        <v>0.3665644171779141</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1363636363636364</v>
+        <v>0.1305732484076433</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05944055944055944</v>
+        <v>0.06369426751592357</v>
       </c>
       <c r="K11">
-        <v>0.2062937062937063</v>
+        <v>0.2006369426751592</v>
       </c>
       <c r="L11">
-        <v>0.5734265734265734</v>
+        <v>0.5828025477707006</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02447552447552448</v>
+        <v>0.02229299363057325</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7175141242937854</v>
+        <v>0.7121212121212122</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1807909604519774</v>
+        <v>0.1767676767676768</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.06214689265536723</v>
+        <v>0.06565656565656566</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03954802259887006</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5319148936170213</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4042553191489361</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06382978723404255</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03529411764705882</v>
+        <v>0.0310880829015544</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1352941176470588</v>
+        <v>0.1398963730569948</v>
       </c>
       <c r="I15">
-        <v>0.07058823529411765</v>
+        <v>0.08290155440414508</v>
       </c>
       <c r="J15">
-        <v>0.4352941176470588</v>
+        <v>0.4145077720207254</v>
       </c>
       <c r="K15">
-        <v>0.05294117647058823</v>
+        <v>0.05181347150259067</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.03529411764705882</v>
+        <v>0.03626943005181347</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.02941176470588235</v>
+        <v>0.03626943005181347</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2058823529411765</v>
+        <v>0.2072538860103627</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02684563758389262</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2080536912751678</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="I16">
-        <v>0.09395973154362416</v>
+        <v>0.1144578313253012</v>
       </c>
       <c r="J16">
-        <v>0.3758389261744967</v>
+        <v>0.3614457831325301</v>
       </c>
       <c r="K16">
-        <v>0.1073825503355705</v>
+        <v>0.0963855421686747</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01342281879194631</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="N16">
-        <v>0.01342281879194631</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="O16">
-        <v>0.04026845637583892</v>
+        <v>0.04819277108433735</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1208053691275168</v>
+        <v>0.1144578313253012</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.016359918200409</v>
+        <v>0.01669758812615955</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1738241308793456</v>
+        <v>0.1725417439703154</v>
       </c>
       <c r="I17">
-        <v>0.1022494887525562</v>
+        <v>0.1094619666048238</v>
       </c>
       <c r="J17">
-        <v>0.425357873210634</v>
+        <v>0.4174397031539889</v>
       </c>
       <c r="K17">
-        <v>0.1002044989775051</v>
+        <v>0.09461966604823747</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01226993865030675</v>
+        <v>0.0111317254174397</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04703476482617587</v>
+        <v>0.04823747680890538</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1226993865030675</v>
+        <v>0.1298701298701299</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01226993865030675</v>
+        <v>0.01047120418848168</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1901840490797546</v>
+        <v>0.1989528795811518</v>
       </c>
       <c r="I18">
-        <v>0.09202453987730061</v>
+        <v>0.08900523560209424</v>
       </c>
       <c r="J18">
-        <v>0.3680981595092024</v>
+        <v>0.3717277486910995</v>
       </c>
       <c r="K18">
-        <v>0.1165644171779141</v>
+        <v>0.1204188481675393</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03067484662576687</v>
+        <v>0.03141361256544502</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06134969325153374</v>
+        <v>0.05235602094240838</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1288343558282209</v>
+        <v>0.1256544502617801</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01372074253430186</v>
+        <v>0.01313868613138686</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1848264729620662</v>
+        <v>0.1832116788321168</v>
       </c>
       <c r="I19">
-        <v>0.1089588377723971</v>
+        <v>0.1065693430656934</v>
       </c>
       <c r="J19">
-        <v>0.3704600484261501</v>
+        <v>0.3715328467153285</v>
       </c>
       <c r="K19">
-        <v>0.1105730427764326</v>
+        <v>0.1124087591240876</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02340597255851493</v>
+        <v>0.0218978102189781</v>
       </c>
       <c r="N19">
-        <v>0.001614205004035512</v>
+        <v>0.00145985401459854</v>
       </c>
       <c r="O19">
-        <v>0.06376109765940274</v>
+        <v>0.06350364963503649</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.122679580306699</v>
+        <v>0.1262773722627737</v>
       </c>
     </row>
   </sheetData>
